--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
-        <v>33.11258278145696</v>
+        <v>145</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25.16556291390729</v>
+      </c>
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="F2" t="n">
-        <v>78.94736842105263</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>17</v>
       </c>
-      <c r="I2" t="n">
-        <v>9</v>
-      </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
+        <v>8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="M2" t="n">
+        <v>52.63157894736842</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>52.63157894736842</v>
+      </c>
+      <c r="P2" t="n">
+        <v>89.47368421052632</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.7</v>
       </c>
-      <c r="L2" t="n">
+      <c r="R2" t="n">
         <v>0.3684210526315789</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.4827586206896552</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>32.57191684234496</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>19.94044598908891</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>486</v>
       </c>
       <c r="C3" t="n">
-        <v>51.02880658436214</v>
+        <v>333</v>
       </c>
       <c r="D3" t="n">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G3" t="n">
         <v>79</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>41</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L3" t="n">
+        <v>68.35443037974683</v>
+      </c>
+      <c r="M3" t="n">
         <v>62.0253164556962</v>
       </c>
-      <c r="G3" t="n">
-        <v>36</v>
-      </c>
-      <c r="H3" t="n">
-        <v>41</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>21</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>45.56962025316456</v>
+      </c>
+      <c r="P3" t="n">
+        <v>51.89873417721519</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.4683544303797468</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.6379310344827587</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>48.31648188481851</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>14.99144772727865</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>1850</v>
       </c>
       <c r="C4" t="n">
-        <v>85.13513513513513</v>
+        <v>1021</v>
       </c>
       <c r="D4" t="n">
-        <v>1575</v>
+        <v>829</v>
       </c>
       <c r="E4" t="n">
+        <v>830</v>
+      </c>
+      <c r="F4" t="n">
+        <v>89.67567567567568</v>
+      </c>
+      <c r="G4" t="n">
         <v>247</v>
       </c>
-      <c r="F4" t="n">
-        <v>137.6518218623482</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>29</v>
       </c>
-      <c r="H4" t="n">
-        <v>67</v>
-      </c>
       <c r="I4" t="n">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="J4" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K4" t="n">
+        <v>120</v>
+      </c>
+      <c r="L4" t="n">
+        <v>121.0526315789474</v>
+      </c>
+      <c r="M4" t="n">
+        <v>109.7165991902834</v>
+      </c>
+      <c r="N4" t="n">
+        <v>28</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11.74089068825911</v>
+      </c>
+      <c r="P4" t="n">
+        <v>23.07692307692308</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.6415094339622641</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.5506072874493927</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.5925925925925926</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>17.70991226217298</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>5.138757390833106e-77</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>799</v>
       </c>
       <c r="C5" t="n">
-        <v>56.07008760951189</v>
+        <v>621</v>
       </c>
       <c r="D5" t="n">
-        <v>448</v>
+        <v>178</v>
       </c>
       <c r="E5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>26.78347934918649</v>
+      </c>
+      <c r="G5" t="n">
         <v>109</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>48</v>
+      </c>
+      <c r="I5" t="n">
+        <v>67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32</v>
+      </c>
+      <c r="L5" t="n">
         <v>78.89908256880734</v>
       </c>
-      <c r="G5" t="n">
-        <v>48</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74</v>
-      </c>
-      <c r="I5" t="n">
-        <v>55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>52</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>61.46788990825688</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" t="n">
+        <v>44.03669724770643</v>
+      </c>
+      <c r="P5" t="n">
+        <v>61.46788990825688</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.95</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.5229357798165137</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.6745562130177515</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>37.18858856561359</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>8.472279191457273</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>926</v>
       </c>
       <c r="C6" t="n">
-        <v>31.20950323974082</v>
+        <v>731</v>
       </c>
       <c r="D6" t="n">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="E6" t="n">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24.83801295896328</v>
+      </c>
+      <c r="G6" t="n">
         <v>126</v>
       </c>
-      <c r="F6" t="n">
-        <v>53.96825396825397</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>65</v>
       </c>
-      <c r="H6" t="n">
-        <v>81</v>
-      </c>
       <c r="I6" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K6" t="n">
+        <v>16</v>
+      </c>
+      <c r="L6" t="n">
+        <v>54.76190476190477</v>
+      </c>
+      <c r="M6" t="n">
+        <v>46.03174603174603</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>51.5873015873016</v>
+      </c>
+      <c r="P6" t="n">
+        <v>60.31746031746032</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.5476190476190477</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.7076923076923077</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>59.96922908749725</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>29.65735976219645</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>1238</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8126009693053</v>
+        <v>1168</v>
       </c>
       <c r="D7" t="n">
-        <v>2028</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
+        <v>1645</v>
+      </c>
+      <c r="F7" t="n">
+        <v>138.529886914378</v>
+      </c>
+      <c r="G7" t="n">
         <v>174</v>
       </c>
-      <c r="F7" t="n">
-        <v>205.7471264367816</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>64</v>
       </c>
-      <c r="H7" t="n">
-        <v>103</v>
-      </c>
       <c r="I7" t="n">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J7" t="n">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="K7" t="n">
+        <v>154</v>
+      </c>
+      <c r="L7" t="n">
+        <v>147.7011494252874</v>
+      </c>
+      <c r="M7" t="n">
+        <v>140.2298850574713</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>36.7816091954023</v>
+      </c>
+      <c r="P7" t="n">
+        <v>44.25287356321839</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.423728813559322</v>
       </c>
-      <c r="L7" t="n">
+      <c r="R7" t="n">
         <v>0.5747126436781609</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.4878048780487805</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>50.51865606314736</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>2.963056749713556</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>139.036973344798</v>
+        <v>1029</v>
       </c>
       <c r="D8" t="n">
-        <v>1617</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
+        <v>1426</v>
+      </c>
+      <c r="F8" t="n">
+        <v>134.1358555460017</v>
+      </c>
+      <c r="G8" t="n">
         <v>154</v>
       </c>
-      <c r="F8" t="n">
-        <v>59.09090909090909</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>79</v>
       </c>
-      <c r="H8" t="n">
-        <v>114</v>
-      </c>
       <c r="I8" t="n">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J8" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="K8" t="n">
+        <v>19</v>
+      </c>
+      <c r="L8" t="n">
+        <v>53.24675324675324</v>
+      </c>
+      <c r="M8" t="n">
+        <v>35.71428571428572</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>51.2987012987013</v>
+      </c>
+      <c r="P8" t="n">
+        <v>68.83116883116884</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.564935064935065</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.7219917012448133</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>59.99650983673923</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>23.32238456115496</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>1798</v>
       </c>
       <c r="C9" t="n">
-        <v>77.03003337041156</v>
+        <v>1029</v>
       </c>
       <c r="D9" t="n">
-        <v>1385</v>
+        <v>769</v>
       </c>
       <c r="E9" t="n">
+        <v>493</v>
+      </c>
+      <c r="F9" t="n">
+        <v>70.18909899888766</v>
+      </c>
+      <c r="G9" t="n">
         <v>259</v>
       </c>
-      <c r="F9" t="n">
-        <v>165.2509652509653</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>60</v>
       </c>
-      <c r="H9" t="n">
-        <v>156</v>
-      </c>
       <c r="I9" t="n">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="J9" t="n">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="K9" t="n">
+        <v>266</v>
+      </c>
+      <c r="L9" t="n">
+        <v>142.4710424710425</v>
+      </c>
+      <c r="M9" t="n">
+        <v>130.5019305019305</v>
+      </c>
+      <c r="N9" t="n">
+        <v>31</v>
+      </c>
+      <c r="O9" t="n">
+        <v>23.16602316602317</v>
+      </c>
+      <c r="P9" t="n">
+        <v>35.13513513513514</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.7373737373737373</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.2818532818532818</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.4078212290502793</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>13.84810961126689</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>4.338657565992823</v>
       </c>
     </row>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Molmo/results.xlsx
@@ -620,16 +620,16 @@
         <v>486</v>
       </c>
       <c r="B3" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3333</v>
+        <v>0.3251</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -690,58 +690,58 @@
         <v>1850</v>
       </c>
       <c r="B4" t="n">
-        <v>1021</v>
+        <v>1113</v>
       </c>
       <c r="C4" t="n">
-        <v>829</v>
+        <v>737</v>
       </c>
       <c r="D4" t="n">
-        <v>830</v>
+        <v>738</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8968</v>
+        <v>0.7973</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I4" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4494</v>
+        <v>1.4008</v>
       </c>
       <c r="M4" t="n">
-        <v>1.2227</v>
+        <v>1.1943</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2</v>
+        <v>0.2435</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2357</v>
+        <v>0.2798</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1498</v>
+        <v>0.1903</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1689</v>
+        <v>0.2127</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1713</v>
+        <v>0.2136</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1968</v>
+        <v>0.2416</v>
       </c>
       <c r="T4" t="n">
         <v>0.1771</v>
@@ -760,64 +760,64 @@
         <v>799</v>
       </c>
       <c r="B5" t="n">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C5" t="n">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2678</v>
+        <v>0.2428</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I5" t="n">
         <v>52</v>
       </c>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9817</v>
+        <v>0.9633</v>
       </c>
       <c r="M5" t="n">
         <v>0.633</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5094</v>
+        <v>0.5185</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6207</v>
+        <v>0.6222</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4954</v>
+        <v>0.5138</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>0.6153999999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5023</v>
+        <v>0.5161</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6102</v>
+        <v>0.6188</v>
       </c>
       <c r="T5" t="n">
         <v>0.3719</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0847</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -830,64 +830,64 @@
         <v>926</v>
       </c>
       <c r="B6" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C6" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2484</v>
+        <v>0.2397</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
       </c>
       <c r="G6" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
+        <v>0.5397</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.7788</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8351</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.6429</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.4683</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.7272999999999999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8182</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.5714</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0.6261</v>
+        <v>0.6807</v>
       </c>
       <c r="R6" t="n">
-        <v>0.64</v>
+        <v>0.7043</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7094</v>
+        <v>0.75</v>
       </c>
       <c r="T6" t="n">
         <v>0.5997</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2966</v>
+        <v>0.3377</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -900,64 +900,64 @@
         <v>1238</v>
       </c>
       <c r="B7" t="n">
-        <v>1168</v>
+        <v>1199</v>
       </c>
       <c r="C7" t="n">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>1645</v>
+        <v>1614</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3853</v>
+        <v>1.3352</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
       </c>
       <c r="G7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.6207</v>
+        <v>1.6092</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4713</v>
+        <v>1.4885</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2787</v>
+        <v>0.2828</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2944</v>
+        <v>0.2899</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3908</v>
+        <v>0.3966</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4224</v>
+        <v>0.434</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3254</v>
+        <v>0.3301</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3469</v>
+        <v>0.3476</v>
       </c>
       <c r="T7" t="n">
         <v>0.5052</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0296</v>
+        <v>0.0297</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -970,64 +970,64 @@
         <v>1163</v>
       </c>
       <c r="B8" t="n">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="C8" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D8" t="n">
-        <v>1426</v>
+        <v>1415</v>
       </c>
       <c r="E8" t="n">
-        <v>1.3414</v>
+        <v>1.3224</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
       </c>
       <c r="G8" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H8" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I8" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7468</v>
+        <v>0.6299</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3961</v>
+        <v>0.3896</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6403</v>
+        <v>0.705</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7946</v>
+        <v>0.8099</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5779</v>
+        <v>0.6364</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7008</v>
+        <v>0.7259</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6075</v>
+        <v>0.6689000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7448</v>
+        <v>0.7655999999999999</v>
       </c>
       <c r="T8" t="n">
         <v>0.6</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2332</v>
+        <v>0.2828</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1040,64 +1040,64 @@
         <v>1798</v>
       </c>
       <c r="B9" t="n">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="C9" t="n">
-        <v>769</v>
+        <v>740</v>
       </c>
       <c r="D9" t="n">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7019</v>
+        <v>0.6696</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
       </c>
       <c r="G9" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H9" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="I9" t="n">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="J9" t="n">
         <v>31</v>
       </c>
       <c r="K9" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L9" t="n">
-        <v>1.8842</v>
+        <v>1.7413</v>
       </c>
       <c r="M9" t="n">
-        <v>1.6448</v>
+        <v>1.4556</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2639</v>
+        <v>0.2931</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2819</v>
+        <v>0.323</v>
       </c>
       <c r="P9" t="n">
-        <v>0.4942</v>
+        <v>0.5251</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5614</v>
+        <v>0.5965</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3441</v>
+        <v>0.3762</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3754</v>
+        <v>0.4191</v>
       </c>
       <c r="T9" t="n">
         <v>0.1385</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0434</v>
+        <v>0.0495</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>

--- a/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/Schreibmaschninenschrift/Ergebnis_Molmo/results.xlsx
@@ -547,19 +547,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2517</v>
+        <v>0.2467</v>
       </c>
       <c r="F2" t="n">
         <v>19</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B3" t="n">
         <v>335</v>
       </c>
       <c r="C3" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3251</v>
+        <v>0.3025</v>
       </c>
       <c r="F3" t="n">
         <v>79</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1850</v>
+        <v>1844</v>
       </c>
       <c r="B4" t="n">
-        <v>1113</v>
+        <v>1170</v>
       </c>
       <c r="C4" t="n">
-        <v>737</v>
+        <v>674</v>
       </c>
       <c r="D4" t="n">
-        <v>738</v>
+        <v>456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7973</v>
+        <v>0.6128</v>
       </c>
       <c r="F4" t="n">
         <v>247</v>
@@ -711,40 +711,40 @@
         <v>200</v>
       </c>
       <c r="I4" t="n">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4008</v>
+        <v>1.2389</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1943</v>
+        <v>1.2146</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2435</v>
+        <v>0.3072</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2798</v>
+        <v>0.3133</v>
       </c>
       <c r="P4" t="n">
         <v>0.1903</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2127</v>
+        <v>0.1926</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2136</v>
+        <v>0.235</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2416</v>
+        <v>0.2386</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1771</v>
+        <v>0.1773</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>799</v>
+        <v>721</v>
       </c>
       <c r="B5" t="n">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="C5" t="n">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2428</v>
+        <v>0.1872</v>
       </c>
       <c r="F5" t="n">
         <v>109</v>
@@ -781,43 +781,43 @@
         <v>53</v>
       </c>
       <c r="I5" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9633</v>
+        <v>0.8624000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.633</v>
+        <v>0.5688</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5185</v>
+        <v>0.5773</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6222</v>
+        <v>0.6829</v>
       </c>
       <c r="P5" t="n">
         <v>0.5138</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.6087</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5161</v>
+        <v>0.5437</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6188</v>
+        <v>0.6437</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3719</v>
+        <v>0.3941</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.0887</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="B6" t="n">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="C6" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2397</v>
+        <v>0.2106</v>
       </c>
       <c r="F6" t="n">
         <v>126</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="B7" t="n">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>1614</v>
+        <v>1590</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3352</v>
+        <v>1.3228</v>
       </c>
       <c r="F7" t="n">
         <v>174</v>
@@ -921,25 +921,25 @@
         <v>105</v>
       </c>
       <c r="I7" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="J7" t="n">
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.6092</v>
+        <v>1.5805</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4885</v>
+        <v>1.477</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2828</v>
+        <v>0.2887</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2899</v>
+        <v>0.2924</v>
       </c>
       <c r="P7" t="n">
         <v>0.3966</v>
@@ -948,16 +948,16 @@
         <v>0.434</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3301</v>
+        <v>0.3341</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3476</v>
+        <v>0.3494</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5052</v>
+        <v>0.5043</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0297</v>
+        <v>0.0301</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="B8" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C8" t="n">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>1415</v>
+        <v>1405</v>
       </c>
       <c r="E8" t="n">
-        <v>1.3224</v>
+        <v>1.3304</v>
       </c>
       <c r="F8" t="n">
         <v>154</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1798</v>
+        <v>1784</v>
       </c>
       <c r="B9" t="n">
-        <v>1058</v>
+        <v>1199</v>
       </c>
       <c r="C9" t="n">
-        <v>740</v>
+        <v>585</v>
       </c>
       <c r="D9" t="n">
-        <v>464</v>
+        <v>264</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6696</v>
+        <v>0.4759</v>
       </c>
       <c r="F9" t="n">
         <v>259</v>
@@ -1061,43 +1061,43 @@
         <v>123</v>
       </c>
       <c r="I9" t="n">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J9" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K9" t="n">
         <v>43</v>
       </c>
       <c r="L9" t="n">
-        <v>1.7413</v>
+        <v>1.6988</v>
       </c>
       <c r="M9" t="n">
-        <v>1.4556</v>
+        <v>1.3822</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2931</v>
+        <v>0.3002</v>
       </c>
       <c r="O9" t="n">
-        <v>0.323</v>
+        <v>0.3317</v>
       </c>
       <c r="P9" t="n">
         <v>0.5251</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5965</v>
+        <v>0.6182</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3762</v>
+        <v>0.382</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4191</v>
+        <v>0.4317</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1385</v>
+        <v>0.1388</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0495</v>
+        <v>0.0507</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
